--- a/biology/Médecine/Hubert_Jules_César_Zuber/Hubert_Jules_César_Zuber.xlsx
+++ b/biology/Médecine/Hubert_Jules_César_Zuber/Hubert_Jules_César_Zuber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hubert_Jules_C%C3%A9sar_Zuber</t>
+          <t>Hubert_Jules_César_Zuber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert Jules César Zuber, né le 15 mai 1847 à Bruebach dans le Haut-Rhin et mort le 3 août 1886 au Tonkin, est un médecin militaire français.
 Il fut professeur d'épidémiologie au Val-de-Grâce en 1878 et médecin principal de l'armée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hubert_Jules_C%C3%A9sar_Zuber</t>
+          <t>Hubert_Jules_César_Zuber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hubert Jules César Zuber naît le 15 mai 1847 à Bruebach dans une famille de vignerons[1],[2],[3]. Il fait des études au collège libre de Colmar[4] ou d’Altkirch[1],[2] avant d’entrer à la faculté de médecine puis de poursuivre son cursus à l’école d’application du Val-de-Grâce[4].
-La fin de ses études est précipitée par la guerre franco-prussienne de 1870, pendant laquelle il est rattaché à l’ambulance du quartier général de la garde impériale. Il y participe à la bataille de Gravelotte puis au siège de Metz. Après la chute de la ville, il est versé dans la 2e légion d’Alsace-Lorraine puis participe aux combats contre la Commune de Paris[1].
-Nommé en 1878 agrégé d’épidémiologie à l’hôpital du Val-de-Grâce, il est envoyé en 1883 en Russie pour étudier la peste qui ravage la région d’Astrakhan. Cette mission lui vaut d’être promu médecin-major de 1re classe et d’être intégré dans l’ordre de Sainte-Anne[1],[4]. Il représente par la suite la France à l’étranger, notamment à l’exposition d’hygiène de Berlin en 1883 et au congrès des sociétés de la Croix-Rouge en 1885. En parallèle il participe à la rédaction du règlement du service de santé et à la fondation des archives de médecine militaire[1].
-Il participe à l’expédition du Tonkin au sein de l’ambulance de la brigade d’Oscar de Négrier, à qui il porte secours quand celui-ci est blessé pendant la bataille de Lang-Son. Nommé directeur de l’hôpital de Haïphong en 1885, il parvient à endiguer une épidémie de choléra, ce qui lui vaut d’être promu médecin principal et d’être élevé au rang d’officier de la Légion d’honneur. il tombe toutefois lui-même malade l’année suivante et meurt à Haïphong le 3 août 1889[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert Jules César Zuber naît le 15 mai 1847 à Bruebach dans une famille de vignerons. Il fait des études au collège libre de Colmar ou d’Altkirch, avant d’entrer à la faculté de médecine puis de poursuivre son cursus à l’école d’application du Val-de-Grâce.
+La fin de ses études est précipitée par la guerre franco-prussienne de 1870, pendant laquelle il est rattaché à l’ambulance du quartier général de la garde impériale. Il y participe à la bataille de Gravelotte puis au siège de Metz. Après la chute de la ville, il est versé dans la 2e légion d’Alsace-Lorraine puis participe aux combats contre la Commune de Paris.
+Nommé en 1878 agrégé d’épidémiologie à l’hôpital du Val-de-Grâce, il est envoyé en 1883 en Russie pour étudier la peste qui ravage la région d’Astrakhan. Cette mission lui vaut d’être promu médecin-major de 1re classe et d’être intégré dans l’ordre de Sainte-Anne,. Il représente par la suite la France à l’étranger, notamment à l’exposition d’hygiène de Berlin en 1883 et au congrès des sociétés de la Croix-Rouge en 1885. En parallèle il participe à la rédaction du règlement du service de santé et à la fondation des archives de médecine militaire.
+Il participe à l’expédition du Tonkin au sein de l’ambulance de la brigade d’Oscar de Négrier, à qui il porte secours quand celui-ci est blessé pendant la bataille de Lang-Son. Nommé directeur de l’hôpital de Haïphong en 1885, il parvient à endiguer une épidémie de choléra, ce qui lui vaut d’être promu médecin principal et d’être élevé au rang d’officier de la Légion d’honneur. il tombe toutefois lui-même malade l’année suivante et meurt à Haïphong le 3 août 1889.
 </t>
         </is>
       </c>
